--- a/reporting_tool/trading_service/guidance_trading_depository.xlsx
+++ b/reporting_tool/trading_service/guidance_trading_depository.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiepdang\PycharmProjects\datadriven-project\reporting_tool\trading_service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiepdang\PycharmProjects\DataAnalytics\reporting_tool\trading_service\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>Báo cáo hoạt động lưu ký NĐT nước ngoài</t>
   </si>
@@ -265,7 +265,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -379,86 +385,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,13 +761,13 @@
   <dimension ref="A2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G18" sqref="G18:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" style="4" customWidth="1"/>
@@ -760,7 +778,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>55</v>
       </c>
     </row>
@@ -788,13 +806,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -803,10 +821,10 @@
       <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -814,7 +832,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="36"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
@@ -825,41 +843,41 @@
       <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="36"/>
       <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="42" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="37"/>
       <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:8" s="9" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
@@ -877,8 +895,8 @@
       <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="9" t="s">
         <v>59</v>
       </c>
@@ -889,17 +907,17 @@
       <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="39">
         <v>3</v>
       </c>
       <c r="B11" s="35" t="s">
@@ -914,10 +932,10 @@
       <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="29" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -925,7 +943,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="35"/>
       <c r="C12" s="8" t="s">
         <v>38</v>
@@ -934,14 +952,14 @@
         <v>111001</v>
       </c>
       <c r="E12" s="8"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="39">
         <v>4</v>
       </c>
       <c r="B13" s="35" t="s">
@@ -956,14 +974,14 @@
       <c r="E13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="35"/>
       <c r="C14" s="8" t="s">
         <v>38</v>
@@ -972,14 +990,14 @@
         <v>111001</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="39">
         <v>5</v>
       </c>
       <c r="B15" s="35" t="s">
@@ -994,14 +1012,14 @@
       <c r="E15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
         <v>31</v>
@@ -1012,14 +1030,14 @@
       <c r="E16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="41">
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -1034,8 +1052,8 @@
       <c r="E17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="9" t="s">
         <v>59</v>
       </c>
@@ -1050,20 +1068,23 @@
       <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="29" t="s">
         <v>53</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>59</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1076,11 +1097,12 @@
         <v>49</v>
       </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
@@ -1092,20 +1114,21 @@
         <v>48</v>
       </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
+      <c r="A21" s="25">
         <v>8</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -1114,8 +1137,8 @@
       <c r="E21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="9" t="s">
         <v>59</v>
       </c>
@@ -1124,7 +1147,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
+      <c r="A22" s="25">
         <v>9</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -1139,8 +1162,8 @@
       <c r="E22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="9" t="s">
         <v>59</v>
       </c>
@@ -1149,7 +1172,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
+      <c r="A23" s="25">
         <v>10</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -1164,8 +1187,8 @@
       <c r="E23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="9" t="s">
         <v>59</v>
       </c>
@@ -1174,19 +1197,19 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
+      <c r="A24" s="25">
         <v>11</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="9" t="s">
         <v>59</v>
       </c>
@@ -1195,7 +1218,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="9" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="25">
         <v>12</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -1210,24 +1233,30 @@
       <c r="E25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="18" t="s">
         <v>54</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="I25" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="26" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="G11:G17"/>
+    <mergeCell ref="F11:F17"/>
+    <mergeCell ref="I18:I20"/>
     <mergeCell ref="F18:F24"/>
     <mergeCell ref="G18:G24"/>
     <mergeCell ref="A11:A12"/>
@@ -1244,8 +1273,6 @@
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="G5:G10"/>
-    <mergeCell ref="G11:G17"/>
-    <mergeCell ref="F11:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
